--- a/src/main/resources/template/excel/export/SupplierSettle.xlsx
+++ b/src/main/resources/template/excel/export/SupplierSettle.xlsx
@@ -21,10 +21,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>yml</author>
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>单号</t>
   </si>
@@ -74,23 +75,6 @@
   </si>
   <si>
     <t>${payedAmount}</t>
-  </si>
-  <si>
-    <r>
-      <t>${obj.formNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -360,6 +344,14 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.targetFormNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,9 +477,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -501,6 +490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,7 +773,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,241 +784,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>61</v>
+      <c r="H3" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>62</v>
+      <c r="H4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="I7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="I11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="L11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1046,16 +1039,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierSettle.xlsx
+++ b/src/main/resources/template/excel/export/SupplierSettle.xlsx
@@ -773,14 +773,22 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4"/>
-    <col min="3" max="3" width="15.5" style="2"/>
-    <col min="6" max="7" width="15.5" style="2"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/SupplierSettle.xlsx
+++ b/src/main/resources/template/excel/export/SupplierSettle.xlsx
@@ -773,12 +773,12 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>

--- a/src/main/resources/template/excel/export/SupplierSettle.xlsx
+++ b/src/main/resources/template/excel/export/SupplierSettle.xlsx
@@ -278,9 +278,6 @@
     <t>联系方式：</t>
   </si>
   <si>
-    <t>${phone}/${mobile}</t>
-  </si>
-  <si>
     <t>办公地址：</t>
   </si>
   <si>
@@ -352,6 +349,10 @@
   </si>
   <si>
     <t>${obj.rowNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${phoneMobile}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +810,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>42</v>
@@ -832,7 +833,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>3</v>
@@ -849,10 +850,10 @@
         <v>46</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>4</v>
@@ -866,16 +867,16 @@
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -886,16 +887,16 @@
         <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -906,16 +907,16 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -926,10 +927,10 @@
         <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
@@ -942,16 +943,16 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -994,10 +995,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
